--- a/input-data/pcrit-check.xlsx
+++ b/input-data/pcrit-check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\offline\R scripts\EXP-2024-gmac-labchart\input-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9589206-FAFC-412B-ADE3-3575C074D45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F84473-B674-48F5-8B1A-FA28C6F69594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="1530" windowWidth="19420" windowHeight="11020" xr2:uid="{45688492-4AC6-4A17-957D-F8AB53ECCA87}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="46">
   <si>
     <t>a_0_24nov_4</t>
   </si>
@@ -548,7 +548,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E2" sqref="E2:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,6 +588,12 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -596,6 +602,12 @@
       <c r="B3" t="s">
         <v>39</v>
       </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -604,6 +616,12 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -612,6 +630,12 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -620,6 +644,12 @@
       <c r="B6" t="s">
         <v>2</v>
       </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -628,6 +658,12 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -636,6 +672,12 @@
       <c r="B8" t="s">
         <v>2</v>
       </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -644,6 +686,12 @@
       <c r="B9" t="s">
         <v>2</v>
       </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -652,6 +700,12 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -660,6 +714,12 @@
       <c r="B11" t="s">
         <v>2</v>
       </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -668,6 +728,12 @@
       <c r="B12" t="s">
         <v>2</v>
       </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -676,6 +742,12 @@
       <c r="B13" t="s">
         <v>3</v>
       </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -684,6 +756,12 @@
       <c r="B14" t="s">
         <v>2</v>
       </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -692,6 +770,12 @@
       <c r="B15" t="s">
         <v>39</v>
       </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -700,180 +784,318 @@
       <c r="B16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" t="s">
         <v>39</v>
       </c>
     </row>
